--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -217,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -301,7 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>

--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>component</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>degradation</t>
+  </si>
+  <si>
+    <t>external_diameter</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,12 +859,20 @@
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">

--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{75491DEA-6D8E-4AF6-B274-741D92C92968}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
-    <sheet name="brainstorming" sheetId="4" r:id="rId3"/>
-    <sheet name="units" sheetId="3" r:id="rId4"/>
+    <sheet name="Failure Modes" sheetId="6" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="5" r:id="rId4"/>
+    <sheet name="brainstorming" sheetId="4" r:id="rId5"/>
+    <sheet name="units" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>component</t>
   </si>
@@ -47,9 +50,6 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>Failure</t>
-  </si>
-  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
     <t>years</t>
   </si>
   <si>
-    <t>symptom</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>dist</t>
   </si>
   <si>
-    <t>linear</t>
-  </si>
-  <si>
     <t>Questions for Occa</t>
   </si>
   <si>
@@ -125,12 +119,6 @@
     <t>How to include failure mode initiation?</t>
   </si>
   <si>
-    <t>param_a</t>
-  </si>
-  <si>
-    <t>param_b</t>
-  </si>
-  <si>
     <t>inspect_interval</t>
   </si>
   <si>
@@ -167,58 +155,115 @@
     <t>An asset that has made it 100 years?</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>Consequence</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
     <t>Termite_</t>
   </si>
   <si>
-    <t>raw_condition</t>
-  </si>
-  <si>
-    <t>diamater</t>
-  </si>
-  <si>
-    <t>colour</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>y =mx +b</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
     <t>failure_model</t>
   </si>
   <si>
     <t>Failures</t>
   </si>
   <si>
-    <t>pole_broken_termites_zone_1</t>
-  </si>
-  <si>
-    <t>corrosion</t>
-  </si>
-  <si>
-    <t>degradation</t>
-  </si>
-  <si>
     <t>external_diameter</t>
+  </si>
+  <si>
+    <t>pbt</t>
+  </si>
+  <si>
+    <t>pf_interval</t>
+  </si>
+  <si>
+    <t>pf_curve</t>
+  </si>
+  <si>
+    <t>pf_std</t>
+  </si>
+  <si>
+    <t>pf_linear</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>failure_mode</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>p_effective</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>t_delay</t>
+  </si>
+  <si>
+    <t>t_interval</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>initiation</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>repair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -239,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -305,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,102 +638,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" customWidth="1"/>
-    <col min="29" max="29" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="1"/>
-      <c r="AC1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -690,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
@@ -701,91 +749,84 @@
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="V2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="X2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>41</v>
+      <c r="Z2" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="7">
         <v>50</v>
       </c>
@@ -795,134 +836,80 @@
       <c r="G3" s="7">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="L3" s="3">
-        <v>-10</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5">
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>5</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5">
         <v>95</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="S3" s="13">
         <v>0.8</v>
       </c>
-      <c r="R3" s="14">
+      <c r="T3" s="14">
         <v>100</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="12">
+        <v>95</v>
+      </c>
+      <c r="X3" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="12">
-        <v>95</v>
-      </c>
-      <c r="V3" s="12">
+      <c r="Z3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3">
         <v>50</v>
       </c>
-      <c r="W3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3">
+      <c r="AC3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="AA3">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="I4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,78 +918,264 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="3">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5">
+        <v>95</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="T3" s="14">
+        <v>100</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="12">
+        <v>95</v>
+      </c>
+      <c r="X3" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <v>50</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,14 +1184,308 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{75491DEA-6D8E-4AF6-B274-741D92C92968}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{64A763E4-30C6-42E5-B1D2-664807242E5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
     <sheet name="Failure Modes" sheetId="6" r:id="rId3"/>
     <sheet name="Tasks" sheetId="5" r:id="rId4"/>
-    <sheet name="brainstorming" sheetId="4" r:id="rId5"/>
-    <sheet name="units" sheetId="3" r:id="rId6"/>
+    <sheet name="Task Groups" sheetId="7" r:id="rId5"/>
+    <sheet name="brainstorming" sheetId="4" r:id="rId6"/>
+    <sheet name="units" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>component</t>
   </si>
@@ -258,6 +259,93 @@
   </si>
   <si>
     <t>repair</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>condition_loss</t>
+  </si>
+  <si>
+    <t>early_replacement</t>
+  </si>
+  <si>
+    <t>emergency_replacement</t>
+  </si>
+  <si>
+    <t>fungal decay</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>task_group</t>
+  </si>
+  <si>
+    <t>level_3_inspection</t>
+  </si>
+  <si>
+    <t>task_group_name</t>
+  </si>
+  <si>
+    <t>apportion_costs</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>maint</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Occas Thoughts</t>
+  </si>
+  <si>
+    <t>bearing example</t>
+  </si>
+  <si>
+    <t>Level of Failure</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>component_1</t>
+  </si>
+  <si>
+    <t>asset_system</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
@@ -284,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,7 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -356,14 +456,95 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -655,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,14 +1102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -969,7 +1150,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1091,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E3" s="7">
         <v>50</v>
@@ -1103,9 +1284,15 @@
         <v>10</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1185,66 +1372,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.140625" style="17"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="16" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="1" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,150 +1481,865 @@
       <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="Q3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="R3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="S3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="T3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="U3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="W3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="X3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="Y3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="Z3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="AA3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="AB3" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="15">
         <v>0.8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15">
+        <v>50</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="15">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="15">
         <v>5</v>
       </c>
-      <c r="J4" s="10" t="b">
+      <c r="K4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="b">
+      <c r="Q4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="15">
+        <v>100</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8">
+      <c r="Q5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="19">
+        <v>50</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="19">
+        <v>50</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>50</v>
+      </c>
+      <c r="V7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <v>50</v>
+      </c>
+      <c r="V8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7000</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+    </row>
+    <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="15">
+        <v>50</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="15">
+        <v>20</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="15">
         <v>0.9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F15" s="15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="19">
+        <v>50</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="19">
+        <v>50</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="b">
+      <c r="H17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="b">
+      <c r="Q17" s="16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="R17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="19">
+        <v>0</v>
+      </c>
+      <c r="U17" s="19">
+        <v>50</v>
+      </c>
+      <c r="V17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <v>50</v>
+      </c>
+      <c r="V18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="20">
+        <v>0</v>
+      </c>
+      <c r="U19" s="20">
+        <v>3</v>
+      </c>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D9">
+      <c r="P20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
+      <c r="S20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+    </row>
+    <row r="22" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+    </row>
+    <row r="28" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC14:XFD20 F28:XFD28 E7:R7 E10:XFD13 E29:K30 M29:XFD30 L28:L30 E21:XFD27 E17:R17 E20:AB20 E15:AB16 E4:XFD6 A10:C17 A4:C7 A20:C30">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:X8">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18 Y17:AB18 S19 E14:F14 P14:AB14 H14:L14">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17:X18">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:O14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:J20"/>
   <sheetViews>
@@ -1477,7 +2419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -8,30 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{64A763E4-30C6-42E5-B1D2-664807242E5E}"/>
+  <xr:revisionPtr revIDLastSave="679" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{74361218-DC63-4FFD-A5D4-1CD000DE10B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
-    <sheet name="Failure Modes" sheetId="6" r:id="rId3"/>
-    <sheet name="Tasks" sheetId="5" r:id="rId4"/>
-    <sheet name="Task Groups" sheetId="7" r:id="rId5"/>
-    <sheet name="brainstorming" sheetId="4" r:id="rId6"/>
-    <sheet name="units" sheetId="3" r:id="rId7"/>
+    <sheet name="Asset Heirarchy" sheetId="8" r:id="rId3"/>
+    <sheet name="Condition" sheetId="9" r:id="rId4"/>
+    <sheet name="Failure Modes" sheetId="6" r:id="rId5"/>
+    <sheet name="Tasks" sheetId="5" r:id="rId6"/>
+    <sheet name="Task Groups" sheetId="7" r:id="rId7"/>
+    <sheet name="brainstorming" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="ddIssue">[1]!TIssue[Issue]</definedName>
+    <definedName name="ddReason">[1]!TReason[R1]</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="246">
   <si>
     <t>component</t>
   </si>
@@ -273,9 +288,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>condition_loss</t>
-  </si>
-  <si>
     <t>early_replacement</t>
   </si>
   <si>
@@ -342,10 +354,436 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>Completion</t>
-  </si>
-  <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>Sate</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Level of Impact</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>{broken}</t>
+  </si>
+  <si>
+    <t>(vandalism)</t>
+  </si>
+  <si>
+    <t>(lightning)</t>
+  </si>
+  <si>
+    <t>(impact)</t>
+  </si>
+  <si>
+    <t>(fire damage - bushfire)</t>
+  </si>
+  <si>
+    <t>(fire damage - asset related)</t>
+  </si>
+  <si>
+    <t>(extreme environment)</t>
+  </si>
+  <si>
+    <t>(fungal decay - brown rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - carroty rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - white rot)</t>
+  </si>
+  <si>
+    <t>(termites)</t>
+  </si>
+  <si>
+    <t>(fungal decay - external soft rot)</t>
+  </si>
+  <si>
+    <t>(weathering)</t>
+  </si>
+  <si>
+    <t>{cracked}</t>
+  </si>
+  <si>
+    <t>{insecure}</t>
+  </si>
+  <si>
+    <t>{degraded appearance}</t>
+  </si>
+  <si>
+    <t>[pole foundation]</t>
+  </si>
+  <si>
+    <t>{eroded}</t>
+  </si>
+  <si>
+    <t>(wear)</t>
+  </si>
+  <si>
+    <t>(environment)</t>
+  </si>
+  <si>
+    <t>{loose}</t>
+  </si>
+  <si>
+    <t>(any reason)</t>
+  </si>
+  <si>
+    <t>{ruptured}</t>
+  </si>
+  <si>
+    <t>[pole cap]</t>
+  </si>
+  <si>
+    <t>{missing}</t>
+  </si>
+  <si>
+    <t>(installation error)</t>
+  </si>
+  <si>
+    <t>{falls out}</t>
+  </si>
+  <si>
+    <t>[step]</t>
+  </si>
+  <si>
+    <t>[attachments]</t>
+  </si>
+  <si>
+    <t>{too low}</t>
+  </si>
+  <si>
+    <t>[label]</t>
+  </si>
+  <si>
+    <t>{not observable}</t>
+  </si>
+  <si>
+    <t>(age)</t>
+  </si>
+  <si>
+    <t>(out of specification)</t>
+  </si>
+  <si>
+    <t>[tag]</t>
+  </si>
+  <si>
+    <t>[top attachment point]</t>
+  </si>
+  <si>
+    <t>[thimble]</t>
+  </si>
+  <si>
+    <t>(misalignment)</t>
+  </si>
+  <si>
+    <t>[dead end]</t>
+  </si>
+  <si>
+    <t>(corrosion)</t>
+  </si>
+  <si>
+    <t>(fatigue)</t>
+  </si>
+  <si>
+    <t>[wire]</t>
+  </si>
+  <si>
+    <t>(overloaded)</t>
+  </si>
+  <si>
+    <t>[insulator]</t>
+  </si>
+  <si>
+    <t>[sight guard]</t>
+  </si>
+  <si>
+    <t>[anchor rod]</t>
+  </si>
+  <si>
+    <t>[footing]</t>
+  </si>
+  <si>
+    <t>[nail]</t>
+  </si>
+  <si>
+    <t>[bands]</t>
+  </si>
+  <si>
+    <t>[pole]</t>
+  </si>
+  <si>
+    <t>[pole sapwood]</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>ssf_calc</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Simplified</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>Degrade condition</t>
+  </si>
+  <si>
+    <t>Condition Loss</t>
+  </si>
+  <si>
+    <t>Pole Sre</t>
+  </si>
+  <si>
+    <t>Pole Strength</t>
+  </si>
+  <si>
+    <t>CZD</t>
+  </si>
+  <si>
+    <t>AGD</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>PLP SF</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>pole_strength / actual load</t>
+  </si>
+  <si>
+    <t>pole_strength / pole load</t>
+  </si>
+  <si>
+    <t>pole_load = pole_ strength / 4</t>
+  </si>
+  <si>
+    <t>Pole Load</t>
+  </si>
+  <si>
+    <t>pole_strength/4</t>
+  </si>
+  <si>
+    <t>WASP</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>Story to explain</t>
+  </si>
+  <si>
+    <t>inspection interval for new poles</t>
+  </si>
+  <si>
+    <t>inspection interval for each poles</t>
+  </si>
+  <si>
+    <t>For each type</t>
+  </si>
+  <si>
+    <t>Starting Condition</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>material_loss</t>
   </si>
 </sst>
 </file>
@@ -355,7 +793,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +809,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +917,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -436,11 +954,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -490,9 +1022,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -555,6 +1107,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TODO"/>
+      <sheetName val="Instructions"/>
+      <sheetName val="Failure History"/>
+      <sheetName val="Data Validation"/>
+      <sheetName val="Input"/>
+      <sheetName val="RCM"/>
+      <sheetName val="System"/>
+      <sheetName val="Insp Outcome"/>
+      <sheetName val="Effect"/>
+      <sheetName val="Likelihood"/>
+      <sheetName val="Assumptions"/>
+      <sheetName val="R(t)"/>
+      <sheetName val="F(t step)"/>
+      <sheetName val="Failures"/>
+      <sheetName val="Failures w Replacement"/>
+      <sheetName val="Maintenance Strategy"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,283 +1694,1622 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B23F31-D664-4F99-AD97-38FA517354EE}">
+  <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="L3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="J6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E4618E-A3DF-4EEC-9A86-F1390FA0DBB9}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
+  <dimension ref="A2:Q71"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G1:R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O3" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="7">
-        <v>50</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="7">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3">
-        <v>100</v>
-      </c>
-      <c r="O3" s="3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="37" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="37" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="37" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5">
-        <v>95</v>
-      </c>
-      <c r="S3" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="T3" s="14">
-        <v>100</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="12">
-        <v>95</v>
-      </c>
-      <c r="X3" s="12">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3">
-        <v>50</v>
-      </c>
-      <c r="AC3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="37" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="35" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>due to</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="36" t="str">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v/>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B60 B63:B71 B56:B57 B4:B45" xr:uid="{8A9AE00D-EA6B-441B-A506-0077DC30CB63}">
+      <formula1>ddIssue</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D71" xr:uid="{9FF14286-EB9A-4F7D-A648-E8A661673238}">
+      <formula1>ddReason</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A22" sqref="A18:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,10 +3376,10 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1500,19 +3434,19 @@
         <v>58</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>62</v>
@@ -1586,16 +3520,16 @@
         <v>78</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="O4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="18" t="b">
         <v>1</v>
@@ -1654,7 +3588,7 @@
         <v>75</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P5" s="16" t="b">
         <v>1</v>
@@ -1721,7 +3655,7 @@
     </row>
     <row r="7" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -1736,7 +3670,7 @@
         <v>73</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7" s="16" t="b">
         <v>1</v>
@@ -1799,7 +3733,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
@@ -1816,7 +3750,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1885,7 +3819,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>71</v>
@@ -1897,7 +3831,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>71</v>
@@ -1909,16 +3843,16 @@
         <v>5</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="O14" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P14" s="18" t="b">
         <v>1</v>
@@ -1962,7 +3896,7 @@
     </row>
     <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="15">
         <v>0.9</v>
@@ -2041,7 +3975,7 @@
     </row>
     <row r="17" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -2142,7 +4076,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -2260,7 +4194,7 @@
     </row>
     <row r="28" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -2273,19 +4207,37 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC14:XFD20 F28:XFD28 E7:R7 E10:XFD13 E29:K30 M29:XFD30 L28:L30 E21:XFD27 E17:R17 E20:AB20 E15:AB16 E4:XFD6 A10:C17 A4:C7 A20:C30">
+  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC14:XFD20 F28:XFD28 E7:R7 E10:XFD13 M29:XFD30 L28:L30 E21:XFD27 E17:R17 E20:AB20 E15:AB16 E4:XFD6 A10:C17 A4:C7 A20:C30 E29:E30 G29:K30 B36:B38">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -2325,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2339,17 +4291,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:J20"/>
+  <dimension ref="A3:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2357,7 +4309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2365,32 +4317,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>25</v>
       </c>
@@ -2398,19 +4353,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2419,16 +4379,193 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6BDE3-4896-4958-B1C7-8DC6CB3D9F50}">
+  <dimension ref="A2:S1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="3">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="S5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6">
+        <f>I5/4</f>
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>I6/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R6" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R7" t="s">
+        <v>220</v>
+      </c>
+      <c r="S7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="5">
+        <v>320</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R8" t="s">
+        <v>220</v>
+      </c>
+      <c r="S8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="J12">
+        <f>I12/J6*I6</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1048576" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="679" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{74361218-DC63-4FFD-A5D4-1CD000DE10B4}"/>
+  <xr:revisionPtr revIDLastSave="807" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5219A21D-4450-4A9E-95D3-35F744F14E38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
     <sheet name="Asset Heirarchy" sheetId="8" r:id="rId3"/>
-    <sheet name="Condition" sheetId="9" r:id="rId4"/>
-    <sheet name="Failure Modes" sheetId="6" r:id="rId5"/>
+    <sheet name="Failure Modes" sheetId="6" r:id="rId4"/>
+    <sheet name="Indicators" sheetId="9" r:id="rId5"/>
     <sheet name="Tasks" sheetId="5" r:id="rId6"/>
-    <sheet name="Task Groups" sheetId="7" r:id="rId7"/>
-    <sheet name="brainstorming" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
+    <sheet name="DELETE" sheetId="12" r:id="rId7"/>
+    <sheet name="CostModel" sheetId="11" r:id="rId8"/>
+    <sheet name="Task Groups" sheetId="7" r:id="rId9"/>
+    <sheet name="brainstorming" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="ddIssue">[1]!TIssue[Issue]</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="254">
   <si>
     <t>component</t>
   </si>
@@ -348,9 +350,6 @@
     <t>component_1</t>
   </si>
   <si>
-    <t>asset_system</t>
-  </si>
-  <si>
     <t>schedule</t>
   </si>
   <si>
@@ -642,9 +641,6 @@
     <t>dsf_calc</t>
   </si>
   <si>
-    <t>ssf_calc</t>
-  </si>
-  <si>
     <t>Stay</t>
   </si>
   <si>
@@ -666,9 +662,6 @@
     <t>Degrade condition</t>
   </si>
   <si>
-    <t>Condition Loss</t>
-  </si>
-  <si>
     <t>Pole Sre</t>
   </si>
   <si>
@@ -783,7 +776,40 @@
     <t>[pole stay] due to (unknown)</t>
   </si>
   <si>
-    <t>material_loss</t>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>initiated</t>
+  </si>
+  <si>
+    <t>detected</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>failure mode</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -862,7 +888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +971,12 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -972,7 +1004,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1039,6 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1129,6 +1162,7 @@
       <sheetName val="Failures"/>
       <sheetName val="Failures w Replacement"/>
       <sheetName val="Maintenance Strategy"/>
+      <sheetName val="Asset Strategy - Modelling v0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1147,6 +1181,7 @@
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1427,6 +1462,397 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:P42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>251</v>
+      </c>
+      <c r="P31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6BDE3-4896-4958-B1C7-8DC6CB3D9F50}">
+  <dimension ref="A2:S1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="3">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6">
+        <f>I5/4</f>
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>I6/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="5">
+        <v>320</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R8" t="s">
+        <v>217</v>
+      </c>
+      <c r="S8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="J12">
+        <f>I12/J6*I6</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1048576" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC4"/>
@@ -1709,39 +2135,39 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>111</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1752,7 +2178,7 @@
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1763,74 +2189,74 @@
       </c>
       <c r="D6" s="34"/>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -1839,85 +2265,85 @@
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -1926,34 +2352,34 @@
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -1962,28 +2388,28 @@
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1992,11 +2418,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E4618E-A3DF-4EEC-9A86-F1390FA0DBB9}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,12 +2712,12 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -2023,9 +2729,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -2033,33 +2739,27 @@
       <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2068,59 +2768,78 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>20</v>
       </c>
     </row>
@@ -2129,1187 +2848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
-  <dimension ref="A2:Q71"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G1:R17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>1.5</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" t="s">
-        <v>204</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12">
-        <v>1000</v>
-      </c>
-      <c r="J12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="37" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="37" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D27" s="38"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D34" s="38"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D40" s="41"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D41" s="38"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D43" s="38"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D60" s="38"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D67" s="41"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D68" s="38"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="35" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>due to</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="36" t="str">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v/>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B60 B63:B71 B56:B57 B4:B45" xr:uid="{8A9AE00D-EA6B-441B-A506-0077DC30CB63}">
-      <formula1>ddIssue</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D71" xr:uid="{9FF14286-EB9A-4F7D-A648-E8A661673238}">
-      <formula1>ddReason</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A18:K22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3199,7 @@
     </row>
     <row r="7" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -3731,58 +3275,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>7000</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>78</v>
-      </c>
+    <row r="10" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P11" s="16"/>
@@ -3794,92 +3295,138 @@
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+    <row r="12" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="15">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="15">
+        <v>20</v>
+      </c>
+      <c r="J13" s="15">
+        <v>5</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E14" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F14" s="15">
+        <v>100</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="19">
         <v>50</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="15">
-        <v>20</v>
-      </c>
-      <c r="J14" s="15">
-        <v>5</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X14" s="18" t="s">
-        <v>78</v>
+      <c r="U14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="Y14" s="18" t="s">
         <v>78</v>
@@ -3895,32 +3442,11 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="15">
-        <v>100</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="T15" s="19">
         <v>50</v>
@@ -3937,31 +3463,40 @@
       <c r="X15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB15" s="18" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="C16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="S16" s="15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
         <v>50</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="V16" s="16" t="b">
         <v>0</v>
@@ -3974,32 +3509,8 @@
       </c>
     </row>
     <row r="17" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="16" t="b">
-        <v>0</v>
-      </c>
       <c r="S17" s="15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="T17" s="19">
         <v>0</v>
@@ -4018,109 +3529,99 @@
       </c>
     </row>
     <row r="18" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="19">
+        <v>38</v>
+      </c>
+      <c r="T18" s="20">
         <v>0</v>
       </c>
-      <c r="U18" s="19">
-        <v>50</v>
-      </c>
-      <c r="V18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="U18" s="20">
+        <v>3</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="S19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="20">
-        <v>0</v>
-      </c>
-      <c r="U19" s="20">
-        <v>3</v>
-      </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
     </row>
     <row r="20" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>7000</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P21" s="16"/>
@@ -4183,6 +3684,9 @@
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -4192,52 +3696,39 @@
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
+      <c r="B35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC14:XFD20 F28:XFD28 E7:R7 E10:XFD13 M29:XFD30 L28:L30 E21:XFD27 E17:R17 E20:AB20 E15:AB16 E4:XFD6 A10:C17 A4:C7 A20:C30 E29:E30 G29:K30 B36:B38">
+  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC13:XFD19 F27:XFD27 E7:R7 M28:XFD29 L27:L29 E20:XFD26 E16:R16 E19:AB19 E14:AB15 E4:XFD6 A4:C7 A19:C29 E28:E29 G28:K29 B35:B37 E10:XFD12 A10:C16">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -4247,27 +3738,27 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18 Y17:AB18 S19 E14:F14 P14:AB14 H14:L14">
+  <conditionalFormatting sqref="A17:B17 Y16:AB17 S18 E13:F13 P13:AB13 H13:L13">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:X18">
+  <conditionalFormatting sqref="S16:X17">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:O14">
+  <conditionalFormatting sqref="M13:O13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -4278,6 +3769,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C037A8-2E4B-4616-98B2-BA1E00D5199C}">
+  <dimension ref="A2:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="37" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="37" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="37" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="37" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="37" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D71" xr:uid="{9FF14286-EB9A-4F7D-A648-E8A661673238}">
+      <formula1>ddReason</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B60 B63:B71 B56:B57 B4:B45" xr:uid="{8A9AE00D-EA6B-441B-A506-0077DC30CB63}">
+      <formula1>ddIssue</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2045BA30-CA7E-4EE1-8F14-71E76892F009}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4289,283 +4803,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:N27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6BDE3-4896-4958-B1C7-8DC6CB3D9F50}">
-  <dimension ref="A2:S1048576"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="R4" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="3">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="S5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6">
-        <f>I5/4</f>
-        <v>3.5</v>
-      </c>
-      <c r="J6" s="5">
-        <f>I6/2</f>
-        <v>1.75</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R6" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R7" t="s">
-        <v>220</v>
-      </c>
-      <c r="S7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="5">
-        <v>320</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="J12">
-        <f>I12/J6*I6</f>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>216</v>
-      </c>
-      <c r="M16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O1048576" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5219A21D-4450-4A9E-95D3-35F744F14E38}"/>
+  <xr:revisionPtr revIDLastSave="1045" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A4D155EB-4150-4452-892C-376F34765DE5}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Failure Modes" sheetId="6" r:id="rId4"/>
     <sheet name="Indicators" sheetId="9" r:id="rId5"/>
     <sheet name="Tasks" sheetId="5" r:id="rId6"/>
-    <sheet name="DELETE" sheetId="12" r:id="rId7"/>
-    <sheet name="CostModel" sheetId="11" r:id="rId8"/>
+    <sheet name="CostModel" sheetId="11" r:id="rId7"/>
+    <sheet name="DELETE" sheetId="12" r:id="rId8"/>
     <sheet name="Task Groups" sheetId="7" r:id="rId9"/>
     <sheet name="brainstorming" sheetId="4" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
@@ -32,7 +32,7 @@
     <definedName name="ddIssue">[1]!TIssue[Issue]</definedName>
     <definedName name="ddReason">[1]!TReason[R1]</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="296">
   <si>
     <t>component</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>Sate</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>Footing</t>
   </si>
   <si>
-    <t>Simplified</t>
-  </si>
-  <si>
     <t>Pole Stay</t>
   </si>
   <si>
@@ -810,6 +804,138 @@
   </si>
   <si>
     <t>sf</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>FailureMode</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>as-bad-as-old</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>better_than_old_worse_than_new</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Greg Discussion</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>Task types -&gt; nomenclature</t>
+  </si>
+  <si>
+    <t>Failure Mode</t>
+  </si>
+  <si>
+    <t>rul_min</t>
+  </si>
+  <si>
+    <t>rul_max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>indicators</t>
+  </si>
+  <si>
+    <t>Asset Model</t>
+  </si>
+  <si>
+    <t>Asset Data</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>has_strut</t>
+  </si>
+  <si>
+    <t>value?</t>
+  </si>
+  <si>
+    <t>Greg -&gt; Life extension</t>
+  </si>
+  <si>
+    <t>Multiple tasks are triggered</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>termite powder</t>
+  </si>
+  <si>
+    <t>life extension</t>
+  </si>
+  <si>
+    <t>change an indicator</t>
+  </si>
+  <si>
+    <t>Calibration scenario</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>level_of_repair</t>
+  </si>
+  <si>
+    <t>as_bad_as_old</t>
   </si>
 </sst>
 </file>
@@ -819,7 +945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,8 +1013,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +1110,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -998,13 +1136,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1072,14 +1211,26 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1464,19 +1615,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:P42"/>
+  <dimension ref="A3:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1492,129 +1646,220 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>255</v>
+      </c>
+      <c r="S14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>259</v>
+      </c>
+      <c r="S15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O31" t="s">
-        <v>251</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>69</v>
       </c>
       <c r="K33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>255</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>259</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
         <v>244</v>
       </c>
-      <c r="D35" t="s">
-        <v>246</v>
-      </c>
       <c r="G35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
         <v>244</v>
       </c>
-      <c r="L35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>258</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="R36" t="s">
+        <v>260</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="46" t="s">
         <v>52</v>
       </c>
@@ -1622,9 +1867,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
         <v>65</v>
@@ -1633,32 +1878,170 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <f>PRODUCT(F54:I54)</f>
+        <v>480</v>
+      </c>
+      <c r="K54">
+        <v>60</v>
+      </c>
+      <c r="L54">
+        <f>K54*J54</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f>L54/60/60</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70">
+        <v>250</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71">
+        <v>12.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="O13:O15 O17:O18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1680,48 +2063,48 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -1731,18 +2114,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R5" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" t="s">
         <v>216</v>
-      </c>
-      <c r="S5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -1754,51 +2137,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -1806,7 +2189,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -1814,12 +2197,12 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -1831,20 +2214,20 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2121,308 +2504,317 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B23F31-D664-4F99-AD97-38FA517354EE}">
-  <dimension ref="A2:M41"/>
+  <dimension ref="A2:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="Q2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="S2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="T2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="L3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="Q4" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="34"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="T7" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="J5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="J6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34" t="s">
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33" t="s">
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="34"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q21" s="31"/>
+      <c r="S21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="C21" t="s">
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q22" s="31"/>
+      <c r="T22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q23" s="31"/>
+      <c r="S23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="D22" t="s">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q24" s="31"/>
+      <c r="T24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q25" s="31"/>
+      <c r="T25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="D24" t="s">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q26" s="31"/>
+      <c r="S26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="C26" t="s">
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="31"/>
+      <c r="S27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="C27" t="s">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="31"/>
+      <c r="T28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="D28" t="s">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q29" s="31"/>
+      <c r="S29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="C29" t="s">
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q30" s="31"/>
+      <c r="T30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q31" s="31"/>
+      <c r="T31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="D31" t="s">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33" t="s">
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34" t="s">
+      <c r="T33" s="34"/>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="31"/>
+      <c r="T34" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34" t="s">
+      <c r="T35" s="34"/>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q36" s="31"/>
+      <c r="T36" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33" t="s">
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34" t="s">
+      <c r="T38" s="34"/>
+    </row>
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q39" s="31"/>
+      <c r="T39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="34"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34" t="s">
+      <c r="T40" s="34"/>
+    </row>
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q41" s="31"/>
+      <c r="T41" t="s">
         <v>140</v>
-      </c>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="D41" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2841,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2520,10 +2912,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2537,7 +2929,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -2549,7 +2941,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
         <v>78</v>
@@ -2557,21 +2949,18 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -2594,13 +2983,10 @@
       <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
@@ -2608,13 +2994,10 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>84</v>
@@ -2625,18 +3008,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -2647,48 +3027,81 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
+      <c r="E12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="45">
+        <v>20</v>
+      </c>
+      <c r="G12" s="45">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>78</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2701,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E4618E-A3DF-4EEC-9A86-F1390FA0DBB9}">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,10 +3127,10 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -2731,7 +3144,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -2756,10 +3169,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2768,26 +3181,26 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -2795,7 +3208,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -2803,27 +3216,27 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -2833,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
@@ -2850,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,20 +3276,21 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="17"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="17"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" style="17"/>
+    <col min="28" max="28" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -2884,29 +3298,32 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="21" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
       <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,42 +3331,45 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2972,67 +3392,76 @@
         <v>54</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="V3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="W3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="Y3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -3054,46 +3483,42 @@
       <c r="H4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="J4" s="15">
         <v>20</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <v>5</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="18" t="b">
+      <c r="Q4" s="18" t="b">
         <v>1</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="R4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="16" t="s">
+      <c r="S4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="15" t="s">
         <v>78</v>
       </c>
       <c r="W4" s="18" t="s">
@@ -3102,7 +3527,7 @@
       <c r="X4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="16" t="s">
         <v>78</v>
       </c>
       <c r="Z4" s="18" t="s">
@@ -3114,8 +3539,17 @@
       <c r="AB4" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
         <v>72</v>
       </c>
@@ -3131,75 +3565,82 @@
       <c r="H5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="I5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="P5" s="16" t="b">
-        <v>1</v>
       </c>
       <c r="Q5" s="16" t="b">
         <v>1</v>
       </c>
       <c r="R5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="19">
+      <c r="W5" s="19">
         <v>50</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="X5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V5" s="16" t="b">
+      <c r="Y5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="16" t="b">
+      <c r="Z5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X5" s="16" t="b">
+      <c r="AA5" s="16" t="b">
         <v>0</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="AB5" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P6" s="16"/>
+      <c r="AC5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="19">
+      <c r="W6" s="19">
         <v>50</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="16" t="b">
+      <c r="Y6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="16" t="b">
+      <c r="Z6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X6" s="16" t="b">
+      <c r="AA6" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -3213,99 +3654,110 @@
       <c r="H7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="I7" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="16" t="b">
-        <v>1</v>
       </c>
       <c r="Q7" s="16" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="19">
+      <c r="W7" s="19">
         <v>0</v>
       </c>
-      <c r="U7" s="19">
+      <c r="X7" s="19">
         <v>50</v>
       </c>
-      <c r="V7" s="16" t="b">
+      <c r="Y7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="16" t="b">
+      <c r="Z7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X7" s="16" t="b">
+      <c r="AA7" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S8" s="15" t="s">
+    <row r="8" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="19">
+      <c r="W8" s="19">
         <v>0</v>
       </c>
-      <c r="U8" s="19">
+      <c r="X8" s="19">
         <v>50</v>
       </c>
-      <c r="V8" s="16" t="b">
+      <c r="Y8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="16" t="b">
+      <c r="Z8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X8" s="16" t="b">
+      <c r="AA8" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S9" s="15" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="20">
+      <c r="W9" s="20">
         <v>0</v>
       </c>
-      <c r="U9" s="20">
+      <c r="X9" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P10" s="16"/>
+    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-    </row>
-    <row r="11" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P11" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P12" s="27"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-    </row>
-    <row r="13" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+    </row>
+    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -3327,43 +3779,36 @@
       <c r="H13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="15">
         <v>20</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <v>5</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="M13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="N13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="P13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="18" t="b">
+      <c r="Q13" s="18" t="b">
         <v>1</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="R13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="16" t="s">
+      <c r="S13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="15" t="s">
         <v>78</v>
       </c>
       <c r="W13" s="18" t="s">
@@ -3372,7 +3817,7 @@
       <c r="X13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="18" t="s">
+      <c r="Y13" s="16" t="s">
         <v>78</v>
       </c>
       <c r="Z13" s="18" t="s">
@@ -3384,8 +3829,17 @@
       <c r="AB13" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>83</v>
       </c>
@@ -3401,70 +3855,74 @@
       <c r="H14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="16" t="b">
-        <v>1</v>
-      </c>
       <c r="Q14" s="16" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="19">
+      <c r="W14" s="19">
         <v>50</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="X14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V14" s="16" t="b">
+      <c r="Y14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W14" s="16" t="b">
+      <c r="Z14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X14" s="16" t="b">
+      <c r="AA14" s="16" t="b">
         <v>0</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA14" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="AB14" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="16"/>
+      <c r="AC14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="15" t="s">
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T15" s="19">
+      <c r="W15" s="19">
         <v>50</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V15" s="16" t="b">
+      <c r="Y15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W15" s="16" t="b">
+      <c r="Z15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X15" s="16" t="b">
+      <c r="AA15" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>80</v>
       </c>
@@ -3480,55 +3938,57 @@
       <c r="H16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="16" t="b">
-        <v>1</v>
-      </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
       </c>
       <c r="R16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="19">
+      <c r="W16" s="19">
         <v>0</v>
       </c>
-      <c r="U16" s="19">
+      <c r="X16" s="19">
         <v>50</v>
       </c>
-      <c r="V16" s="16" t="b">
+      <c r="Y16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W16" s="16" t="b">
+      <c r="Z16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X16" s="16" t="b">
+      <c r="AA16" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S17" s="15" t="s">
+    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="19">
+      <c r="W17" s="19">
         <v>0</v>
       </c>
-      <c r="U17" s="19">
+      <c r="X17" s="19">
         <v>50</v>
       </c>
-      <c r="V17" s="16" t="b">
+      <c r="Y17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="W17" s="16" t="b">
+      <c r="Z17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="X17" s="16" t="b">
+      <c r="AA17" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -3543,27 +4003,30 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" s="17"/>
+      <c r="P18"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="15" t="s">
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="20">
+      <c r="W18" s="20">
         <v>0</v>
       </c>
-      <c r="U18" s="20">
+      <c r="X18" s="20">
         <v>3</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
       <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="15" t="s">
@@ -3581,23 +4044,14 @@
       <c r="H19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="Q19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="15" t="b">
+      <c r="R19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="15" t="b">
         <v>1</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>78</v>
@@ -3608,158 +4062,249 @@
       <c r="X19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
+      <c r="Y19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="16"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-    </row>
-    <row r="22" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P22" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+    </row>
+    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="15">
+        <v>50</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16"/>
+      <c r="V21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="19">
+        <v>50</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-    </row>
-    <row r="23" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="19">
+        <v>170</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>50</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+    </row>
+    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P25" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+    </row>
+    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P26" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+    </row>
+    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-    </row>
-    <row r="27" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+    </row>
+    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>102</v>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:B8 Y7:XFD8 S9 AC13:XFD19 F27:XFD27 E7:R7 M28:XFD29 L27:L29 E20:XFD26 E16:R16 E19:AB19 E14:AB15 E4:XFD6 A4:C7 A19:C29 E28:E29 G28:K29 B35:B37 E10:XFD12 A10:C16">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="A8:B8 AB7:XFD8 V9 AF13:XFD19 F27:XFD27 E7:U7 N28:XFD29 M27:M29 E20:XFD26 E16:U16 E19:AE19 E14:AE15 E4:XFD6 A4:C7 A19:C29 E28:E29 G28:L29 E10:XFD12 A10:C16">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:X8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="V7:AA8">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 Y16:AB17 S18 E13:F13 P13:AB13 H13:L13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A17:B17 AB16:AE17 V18 E13:F13 Q13:AE13 H13:M13">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16:X17">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="V16:AA17">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:O13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="N13:P13">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3769,6 +4314,230 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2045BA30-CA7E-4EE1-8F14-71E76892F009}">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <f>D8*4</f>
+        <v>208</v>
+      </c>
+      <c r="F8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C037A8-2E4B-4616-98B2-BA1E00D5199C}">
   <dimension ref="A2:D71"/>
   <sheetViews>
@@ -3805,242 +4574,242 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,77 +4832,77 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>161</v>
-      </c>
       <c r="C23" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>161</v>
-      </c>
       <c r="C24" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>164</v>
-      </c>
-      <c r="C25" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,92 +4916,92 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="C28" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="C28" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>164</v>
-      </c>
-      <c r="C29" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>173</v>
-      </c>
       <c r="C33" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,77 +5015,77 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="C36" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="C36" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>175</v>
-      </c>
       <c r="C37" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>175</v>
-      </c>
-      <c r="C39" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,17 +5108,17 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="C42" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,242 +5132,242 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D45" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>182</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D57" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="C57" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,92 +5381,92 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="36" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>161</v>
-      </c>
-      <c r="C63" s="36" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="35" t="e">
+        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D66" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="C66" s="35" t="e">
-        <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4720,47 +5489,47 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="36" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4776,27 +5545,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2045BA30-CA7E-4EE1-8F14-71E76892F009}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1045" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A4D155EB-4150-4452-892C-376F34765DE5}"/>
+  <xr:revisionPtr revIDLastSave="1169" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{812FD022-071E-4706-91D8-67FAF6BE329B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
-    <sheet name="Asset Heirarchy" sheetId="8" r:id="rId3"/>
-    <sheet name="Failure Modes" sheetId="6" r:id="rId4"/>
-    <sheet name="Indicators" sheetId="9" r:id="rId5"/>
-    <sheet name="Tasks" sheetId="5" r:id="rId6"/>
-    <sheet name="CostModel" sheetId="11" r:id="rId7"/>
-    <sheet name="DELETE" sheetId="12" r:id="rId8"/>
-    <sheet name="Task Groups" sheetId="7" r:id="rId9"/>
-    <sheet name="brainstorming" sheetId="4" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
+    <sheet name="Super Input" sheetId="13" r:id="rId3"/>
+    <sheet name="Asset Heirarchy" sheetId="8" r:id="rId4"/>
+    <sheet name="Failure Modes" sheetId="6" r:id="rId5"/>
+    <sheet name="Indicators" sheetId="9" r:id="rId6"/>
+    <sheet name="Tasks" sheetId="5" r:id="rId7"/>
+    <sheet name="CostModel" sheetId="11" r:id="rId8"/>
+    <sheet name="DELETE" sheetId="12" r:id="rId9"/>
+    <sheet name="Task Groups" sheetId="7" r:id="rId10"/>
+    <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="ddIssue">[1]!TIssue[Issue]</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="297">
   <si>
     <t>component</t>
   </si>
@@ -335,21 +336,12 @@
     <t>no</t>
   </si>
   <si>
-    <t>Occas Thoughts</t>
-  </si>
-  <si>
-    <t>bearing example</t>
-  </si>
-  <si>
     <t>Level of Failure</t>
   </si>
   <si>
     <t>fm</t>
   </si>
   <si>
-    <t>component_1</t>
-  </si>
-  <si>
     <t>schedule</t>
   </si>
   <si>
@@ -833,15 +825,9 @@
     <t>new</t>
   </si>
   <si>
-    <t>Greg Discussion</t>
-  </si>
-  <si>
     <t>Pole Footing</t>
   </si>
   <si>
-    <t>Task types -&gt; nomenclature</t>
-  </si>
-  <si>
     <t>Failure Mode</t>
   </si>
   <si>
@@ -936,6 +922,24 @@
   </si>
   <si>
     <t>as_bad_as_old</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>indicator_name</t>
+  </si>
+  <si>
+    <t>asset_heirarchy</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>sub_system</t>
+  </si>
+  <si>
+    <t>asset</t>
   </si>
 </sst>
 </file>
@@ -945,7 +949,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,8 +1024,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,12 +1091,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1115,6 +1128,24 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1138,12 +1169,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1186,35 +1217,78 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1223,7 +1297,70 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1614,6 +1751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:S71"/>
   <sheetViews>
@@ -1651,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1669,10 +1820,10 @@
         <v>69</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1680,13 +1831,13 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q13" t="s">
         <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1697,10 +1848,10 @@
         <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1711,13 +1862,13 @@
         <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1725,10 +1876,10 @@
         <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1736,15 +1887,15 @@
         <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1754,12 +1905,12 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -1771,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>73</v>
@@ -1780,12 +1931,12 @@
         <v>61</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -1805,7 +1956,7 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -1813,13 +1964,13 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
         <v>60</v>
       </c>
       <c r="R34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -1827,19 +1978,19 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="R35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -1847,20 +1998,20 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="43" t="s">
         <v>52</v>
       </c>
       <c r="L37" t="s">
@@ -1869,7 +2020,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
         <v>65</v>
@@ -1880,10 +2031,10 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J39" t="s">
         <v>61</v>
@@ -1906,29 +2057,29 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -1962,17 +2113,17 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
         <v>73</v>
@@ -1980,12 +2131,12 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,45 +2144,45 @@
         <v>61</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6BDE3-4896-4958-B1C7-8DC6CB3D9F50}">
   <dimension ref="A2:S1048576"/>
   <sheetViews>
@@ -2063,48 +2214,48 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -2114,18 +2265,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" t="s">
         <v>213</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="S5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -2137,51 +2288,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -2189,7 +2340,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -2197,12 +2348,12 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -2214,20 +2365,20 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2503,11 +2654,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
+  <dimension ref="A1:AZ35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="60" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="60" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="51" customWidth="1"/>
+    <col min="34" max="38" width="9.140625" style="17"/>
+    <col min="39" max="39" width="2.85546875" style="51" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.42578125" style="54" customWidth="1"/>
+    <col min="44" max="46" width="9.140625" style="17"/>
+    <col min="47" max="47" width="2.42578125" style="51" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.42578125" style="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="46"/>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="46"/>
+    </row>
+    <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="59"/>
+      <c r="T3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL3" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ3" s="46"/>
+    </row>
+    <row r="4" spans="1:52" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+    </row>
+    <row r="5" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="56"/>
+      <c r="T5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V5" s="15">
+        <v>50</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="47"/>
+    </row>
+    <row r="6" spans="1:52" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="56"/>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="56"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50"/>
+    </row>
+    <row r="7" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="56"/>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V7" s="15">
+        <v>100</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO7" s="19">
+        <v>50</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="47"/>
+    </row>
+    <row r="8" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="56"/>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO8" s="19">
+        <v>50</v>
+      </c>
+      <c r="AP8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="50"/>
+      <c r="AZ8" s="47"/>
+    </row>
+    <row r="9" spans="1:52" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="56"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+    </row>
+    <row r="10" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="19">
+        <v>50</v>
+      </c>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ10" s="47"/>
+    </row>
+    <row r="11" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="AG11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="19">
+        <v>50</v>
+      </c>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="50"/>
+      <c r="AZ11" s="47"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AN12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="50"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="50"/>
+      <c r="AZ13" s="47"/>
+    </row>
+    <row r="14" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="50"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="50"/>
+      <c r="AZ14" s="47"/>
+    </row>
+    <row r="15" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+    </row>
+    <row r="16" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="15">
+        <v>50</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ16" s="47"/>
+    </row>
+    <row r="17" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V17" s="15">
+        <v>100</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO17" s="19">
+        <v>50</v>
+      </c>
+      <c r="AP17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ17" s="47"/>
+    </row>
+    <row r="18" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO18" s="19">
+        <v>50</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="50"/>
+      <c r="AZ18" s="47"/>
+    </row>
+    <row r="19" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="15">
+        <v>1</v>
+      </c>
+      <c r="V19" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="19">
+        <v>50</v>
+      </c>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="50"/>
+      <c r="AZ19" s="47"/>
+    </row>
+    <row r="20" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="AG20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="19">
+        <v>50</v>
+      </c>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="50"/>
+      <c r="AZ20" s="47"/>
+    </row>
+    <row r="21" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="60"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" s="60"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" s="60"/>
+      <c r="R21"/>
+      <c r="S21" s="60"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="20">
+        <v>3</v>
+      </c>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21" s="47"/>
+    </row>
+    <row r="22" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="60"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" s="60"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" s="60"/>
+      <c r="R22"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="15">
+        <v>1</v>
+      </c>
+      <c r="V22" s="15">
+        <v>7000</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU22" s="47"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22" s="47"/>
+    </row>
+    <row r="23" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="50"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="50"/>
+      <c r="AZ23" s="47"/>
+    </row>
+    <row r="24" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V24" s="15">
+        <v>50</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO24" s="19">
+        <v>50</v>
+      </c>
+      <c r="AP24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW24" s="15">
+        <v>50</v>
+      </c>
+      <c r="AX24" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ24" s="47"/>
+    </row>
+    <row r="25" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO25" s="19">
+        <v>170</v>
+      </c>
+      <c r="AP25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW25" s="15">
+        <v>50</v>
+      </c>
+      <c r="AX25" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ25" s="47"/>
+    </row>
+    <row r="26" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="50"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="50"/>
+      <c r="AZ26" s="47"/>
+    </row>
+    <row r="27" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="50"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="50"/>
+      <c r="AZ27" s="47"/>
+    </row>
+    <row r="28" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+    </row>
+    <row r="29" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="50"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="50"/>
+      <c r="AZ29" s="47"/>
+    </row>
+    <row r="30" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="50"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="50"/>
+      <c r="AZ30" s="47"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="59"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A11:S11 AV10:XFD11 AN12 AZ16:XFD22 V30:AF30 U22:AF29 U17:AF19 A22:T32 U31:U32 W31:AF32 U13:AF15 U5:AF10 A6:T10 A5:P5 R5:T5 AH5:XFD9 AH13:XFD15 AH17:AY18 AH22:AY22 AH19:AM19 AH10:AM10 AH23:XFD32 A13:T19">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10:AU11">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:S20 AV19:AY20 AN21 U16:V16 AH16:AY16 X16:AC16">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN19:AU20">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16:AF16">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13:AG15 AG17:AG19 AG5:AG10 AG22:AG32">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B23F31-D664-4F99-AD97-38FA517354EE}">
   <dimension ref="A2:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,288 +4170,288 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q3" s="31"/>
+        <v>230</v>
+      </c>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
+        <v>107</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="34"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="T7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="T12" s="34"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" s="34"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="T19" s="34"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q21" s="28"/>
+      <c r="S21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q22" s="28"/>
+      <c r="T22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q23" s="28"/>
+      <c r="S23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q24" s="28"/>
+      <c r="T24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q21" s="31"/>
-      <c r="S21" t="s">
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q25" s="28"/>
+      <c r="T25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q26" s="28"/>
+      <c r="S26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q22" s="31"/>
-      <c r="T22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q23" s="31"/>
-      <c r="S23" t="s">
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="28"/>
+      <c r="S27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q24" s="31"/>
-      <c r="T24" t="s">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="28"/>
+      <c r="T28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q25" s="31"/>
-      <c r="T25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q26" s="31"/>
-      <c r="S26" t="s">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q29" s="28"/>
+      <c r="S29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q27" s="31"/>
-      <c r="S27" t="s">
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q30" s="28"/>
+      <c r="T30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q31" s="28"/>
+      <c r="T31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q28" s="31"/>
-      <c r="T28" t="s">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q29" s="31"/>
-      <c r="S29" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q30" s="31"/>
-      <c r="T30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q31" s="31"/>
-      <c r="T31" t="s">
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="28"/>
+      <c r="T34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q32" s="32"/>
-      <c r="R32" s="33" t="s">
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-    </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34" t="s">
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q36" s="28"/>
+      <c r="T36" t="s">
         <v>133</v>
       </c>
-      <c r="T33" s="34"/>
-    </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q34" s="31"/>
-      <c r="T34" t="s">
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34" t="s">
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="T35" s="34"/>
-    </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q36" s="31"/>
-      <c r="T36" t="s">
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q39" s="28"/>
+      <c r="T39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q37" s="32"/>
-      <c r="R37" s="33" t="s">
+      <c r="T40" s="31"/>
+    </row>
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q41" s="28"/>
+      <c r="T41" t="s">
         <v>137</v>
-      </c>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-    </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="T38" s="34"/>
-    </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q39" s="31"/>
-      <c r="T39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="T40" s="34"/>
-    </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q41" s="31"/>
-      <c r="T41" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2809,12 +4460,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943E44-E3B0-4655-A8CA-2550CD88D719}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,7 +4492,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,10 +4563,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2929,7 +4580,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -2941,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
         <v>78</v>
@@ -2949,10 +4600,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
@@ -2960,7 +4611,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -2986,7 +4637,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
@@ -2997,7 +4648,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>84</v>
@@ -3008,15 +4659,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+        <v>231</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -3027,23 +4678,23 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <v>20</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="42">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="48"/>
+        <v>227</v>
+      </c>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -3051,22 +4702,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>236</v>
+      <c r="A16" s="42" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -3078,15 +4729,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -3098,10 +4749,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3110,12 +4761,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E4618E-A3DF-4EEC-9A86-F1390FA0DBB9}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,12 +4776,12 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -3142,9 +4793,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -3156,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -3167,12 +4818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3181,78 +4832,59 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J9" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3261,12 +4893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,14 +4915,19 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="9.140625" style="17"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="9.140625" style="17"/>
-    <col min="28" max="28" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.42578125" style="54" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="17"/>
+    <col min="30" max="30" width="2.42578125" style="51" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -3310,20 +4947,24 @@
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="24"/>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="49"/>
       <c r="AE1" s="4"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="46"/>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
@@ -3352,24 +4993,28 @@
       <c r="S2" s="22"/>
       <c r="T2" s="22"/>
       <c r="U2" s="22"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="49"/>
+      <c r="W2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="24"/>
       <c r="X2" s="24"/>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="46"/>
+    </row>
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +5037,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>57</v>
@@ -3401,7 +5046,7 @@
         <v>58</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>88</v>
@@ -3424,44 +5069,48 @@
       <c r="S3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="V3" s="23" t="s">
+      <c r="T3" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="U3" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="V3" s="55"/>
+      <c r="W3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="Y3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AB3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="46"/>
+    </row>
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +5133,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J4" s="15">
         <v>20</v>
@@ -3518,425 +5167,393 @@
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="47"/>
+    </row>
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+    </row>
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E6" s="15">
         <v>0.9</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="16" t="b">
+      <c r="I6" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="16" t="b">
+      <c r="R6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="19">
-        <v>50</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE5" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
-      <c r="V6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="19">
+      <c r="V6" s="50"/>
+      <c r="W6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" s="19">
         <v>50</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>3500</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AB6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="47"/>
+    </row>
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
-      <c r="V7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0</v>
+      <c r="V7" s="50"/>
+      <c r="W7" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="X7" s="19">
         <v>50</v>
       </c>
-      <c r="Y7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="Y7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V8" s="15" t="s">
+      <c r="AB7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="50"/>
+      <c r="AI7" s="47"/>
+    </row>
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+    </row>
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="47"/>
+    </row>
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="47"/>
+      <c r="W10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="19">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19">
+      <c r="X10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
         <v>50</v>
       </c>
-      <c r="Y8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V9" s="15" t="s">
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="50"/>
+      <c r="AI10" s="47"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="20">
-        <v>0</v>
-      </c>
-      <c r="X9" s="20">
+      <c r="X11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-    </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="50"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="50"/>
+      <c r="AI12" s="47"/>
+    </row>
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="50"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="50"/>
+      <c r="AI13" s="47"/>
+    </row>
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+    </row>
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E15" s="15">
         <v>0.8</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F15" s="15">
         <v>50</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="15">
+        <v>20</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="47"/>
+    </row>
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="15">
         <v>100</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="15">
-        <v>20</v>
-      </c>
-      <c r="K13" s="15">
-        <v>5</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE13" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="15">
-        <v>100</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W14" s="19">
-        <v>50</v>
-      </c>
-      <c r="X14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE14" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="19">
-        <v>50</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3500</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -3949,361 +5566,479 @@
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="50"/>
+      <c r="W16" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="W16" s="19">
-        <v>0</v>
       </c>
       <c r="X16" s="19">
         <v>50</v>
       </c>
-      <c r="Y16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="Y16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V17" s="15" t="s">
+      <c r="AB16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI16" s="47"/>
+    </row>
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="W17" s="19">
-        <v>0</v>
       </c>
       <c r="X17" s="19">
         <v>50</v>
       </c>
-      <c r="Y17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="Y17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="15" t="s">
+      <c r="AB17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="50"/>
+      <c r="AI17" s="47"/>
+    </row>
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="50"/>
+      <c r="AI18" s="47"/>
+    </row>
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="47"/>
+      <c r="W19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>50</v>
+      </c>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="50"/>
+      <c r="AI19" s="47"/>
+    </row>
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="20">
-        <v>0</v>
-      </c>
-      <c r="X18" s="20">
+      <c r="X20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20">
         <v>3</v>
       </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-    </row>
-    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="15" t="s">
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20" s="47"/>
+    </row>
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F21" s="15">
         <v>7000</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-    </row>
-    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-    </row>
-    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F21" s="15">
-        <v>50</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="16" t="b">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="R21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="19">
-        <v>50</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y21" s="16" t="s">
+      <c r="V21" s="47"/>
+      <c r="W21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="16" t="s">
+      <c r="X21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="Y21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AB21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>50</v>
-      </c>
-      <c r="AD21" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD21" s="47"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21" s="47"/>
+    </row>
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22" s="19">
-        <v>170</v>
-      </c>
-      <c r="X22" s="19" t="s">
+      <c r="V22" s="50"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="50"/>
+      <c r="AI22" s="47"/>
+    </row>
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="15">
+        <v>50</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="AB23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AC23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AB22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC22" s="15">
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF23" s="15">
         <v>50</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-    </row>
-    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG23" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-    </row>
-    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="50"/>
+      <c r="W24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" s="19">
+        <v>170</v>
+      </c>
+      <c r="Y24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" s="15">
+        <v>50</v>
+      </c>
+      <c r="AG24" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI24" s="47"/>
+    </row>
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="W25" s="19"/>
+      <c r="V25" s="50"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="53"/>
       <c r="AA25" s="16"/>
-    </row>
-    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="50"/>
+      <c r="AI25" s="47"/>
+    </row>
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="W26" s="19"/>
+      <c r="V26" s="50"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="53"/>
       <c r="AA26" s="16"/>
-    </row>
-    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="50"/>
+      <c r="AI26" s="47"/>
+    </row>
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="W27" s="19"/>
+      <c r="V27" s="50"/>
       <c r="X27" s="19"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="16"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="50"/>
+      <c r="AI27" s="47"/>
+    </row>
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="50"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="50"/>
+      <c r="AI28" s="47"/>
+    </row>
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="50"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="50"/>
+      <c r="AI29" s="47"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:B8 AB7:XFD8 V9 AF13:XFD19 F27:XFD27 E7:U7 N28:XFD29 M27:M29 E20:XFD26 E16:U16 E19:AE19 E14:AE15 E4:XFD6 A4:C7 A19:C29 E28:E29 G28:L29 E10:XFD12 A10:C16">
+  <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:AA8">
+  <conditionalFormatting sqref="W9:AD10">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 AB16:AE17 V18 E13:F13 Q13:AE13 H13:M13">
+  <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16:AA17">
+  <conditionalFormatting sqref="W18:AD19">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+  <conditionalFormatting sqref="M15">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:P13">
+  <conditionalFormatting sqref="N15:P15">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -4313,7 +6048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2045BA30-CA7E-4EE1-8F14-71E76892F009}">
   <dimension ref="A2:H16"/>
   <sheetViews>
@@ -4330,19 +6065,19 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>56</v>
@@ -4356,7 +6091,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -4365,7 +6100,7 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -4379,7 +6114,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -4387,7 +6122,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4399,7 +6134,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4449,19 +6184,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>56</v>
@@ -4469,7 +6204,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -4478,7 +6213,7 @@
         <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
         <v>79</v>
@@ -4487,7 +6222,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4495,7 +6230,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -4506,7 +6241,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4520,7 +6255,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -4537,12 +6272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C037A8-2E4B-4616-98B2-BA1E00D5199C}">
   <dimension ref="A2:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,975 +6296,975 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="35" t="e">
+      <c r="A4" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>144</v>
+      <c r="D4" s="32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="36" t="e">
+      <c r="A5" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>145</v>
+      <c r="D5" s="33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="35" t="e">
+      <c r="A6" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>146</v>
+      <c r="D6" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="36" t="e">
+      <c r="A7" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>147</v>
+      <c r="D7" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="35" t="e">
+      <c r="A8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>148</v>
+      <c r="D8" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="36" t="e">
+      <c r="A9" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>149</v>
+      <c r="D9" s="33" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="37" t="e">
+      <c r="A10" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="34" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>150</v>
+      <c r="D10" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="37" t="e">
+      <c r="A11" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="34" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>151</v>
+      <c r="D11" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="37" t="e">
+      <c r="A12" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="34" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>152</v>
+      <c r="D12" s="34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="37" t="e">
+      <c r="A13" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="34" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>153</v>
+      <c r="D13" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="37" t="e">
+      <c r="A14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="34" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>154</v>
+      <c r="D14" s="34" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="36" t="e">
+      <c r="A15" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>155</v>
+      <c r="D15" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="35" t="e">
+      <c r="A16" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>155</v>
+      <c r="D16" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="36" t="e">
+      <c r="A17" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>155</v>
+      <c r="D17" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="35" t="e">
+      <c r="A18" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>153</v>
+      <c r="D18" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="36" t="e">
+      <c r="A19" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>144</v>
+      <c r="D19" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35" t="e">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38" t="e">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="35" t="e">
+      <c r="A22" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>161</v>
+      <c r="D22" s="32" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="36" t="e">
+      <c r="A23" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>149</v>
+      <c r="D23" s="33" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="35" t="e">
+      <c r="A24" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>162</v>
+      <c r="D24" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="36" t="e">
+      <c r="A25" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>164</v>
+      <c r="D25" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="35" t="e">
+      <c r="A26" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>146</v>
+      <c r="D26" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="e">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="35" t="e">
+      <c r="A28" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>168</v>
+      <c r="D28" s="32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="36" t="e">
+      <c r="B29" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>164</v>
+      <c r="D29" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="35" t="e">
+      <c r="C30" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="36" t="e">
+      <c r="C31" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>164</v>
+      <c r="D31" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="35" t="e">
+      <c r="A32" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>155</v>
+      <c r="D32" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="36" t="e">
+      <c r="A33" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>168</v>
+      <c r="D33" s="36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38" t="e">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="36" t="e">
+      <c r="A35" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>164</v>
+      <c r="D35" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="35" t="e">
+      <c r="A36" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>175</v>
+      <c r="D36" s="32" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="36" t="e">
+      <c r="A37" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>176</v>
+      <c r="D37" s="33" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="35" t="e">
+      <c r="A38" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D38" s="35" t="s">
-        <v>164</v>
+      <c r="D38" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="36" t="e">
+      <c r="B39" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>175</v>
+      <c r="D39" s="33" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40" t="e">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38" t="e">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="35" t="e">
+      <c r="A42" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>164</v>
+      <c r="D42" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38" t="e">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D43" s="38"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="35" t="e">
+      <c r="A44" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>164</v>
+      <c r="D44" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="36" t="e">
+      <c r="A45" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>180</v>
+      <c r="D45" s="33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="35" t="e">
+      <c r="A46" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>182</v>
+      <c r="D46" s="32" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="36" t="e">
+      <c r="A47" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>183</v>
+      <c r="D47" s="33" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="35" t="e">
+      <c r="A48" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>168</v>
+      <c r="D48" s="32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="36" t="e">
+      <c r="A49" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>182</v>
+      <c r="D49" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="35" t="e">
+      <c r="A50" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>185</v>
+      <c r="D50" s="32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="36" t="e">
+      <c r="A51" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>183</v>
+      <c r="D51" s="33" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="35" t="e">
+      <c r="A52" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>146</v>
+      <c r="D52" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="36" t="e">
+      <c r="A53" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>145</v>
+      <c r="D53" s="33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="35" t="e">
+      <c r="A54" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>145</v>
+      <c r="D54" s="32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="36" t="e">
+      <c r="A55" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>146</v>
+      <c r="D55" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="35" t="e">
+      <c r="A56" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="35" t="s">
-        <v>162</v>
+      <c r="D56" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="36" t="e">
+      <c r="A57" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>168</v>
+      <c r="D57" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="35" t="e">
+      <c r="A58" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>146</v>
+      <c r="D58" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="36" t="e">
+      <c r="A59" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>168</v>
+      <c r="D59" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38" t="e">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D60" s="38"/>
+      <c r="D60" s="35"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="36" t="e">
+      <c r="A61" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>182</v>
+      <c r="D61" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="35" t="e">
+      <c r="A62" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>146</v>
+      <c r="D62" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="36" t="e">
+      <c r="A63" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D63" s="36" t="s">
-        <v>161</v>
+      <c r="D63" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="35" t="e">
+      <c r="A64" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>149</v>
+      <c r="D64" s="32" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="36" t="e">
+      <c r="A65" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>162</v>
+      <c r="D65" s="33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="35" t="e">
+      <c r="A66" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="35" t="s">
-        <v>164</v>
+      <c r="D66" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40" t="e">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D67" s="41"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38" t="e">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D68" s="38"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="36" t="e">
+      <c r="A69" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>185</v>
+      <c r="D69" s="33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="35" t="e">
+      <c r="A70" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="32" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D70" s="35" t="s">
-        <v>185</v>
+      <c r="D70" s="32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="36" t="e">
+      <c r="A71" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="33" t="e">
         <f>IF(ISBLANK([1]!TRCM[[#This Row],[Issue]]),"",[1]!TRCM[[#Headers],[due to]])</f>
         <v>#REF!</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>168</v>
+      <c r="D71" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5543,18 +7278,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1847B3D8-F642-4CC9-961A-746ED4B98939}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/inputs/rcm.xlsx
+++ b/data/inputs/rcm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1169" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{812FD022-071E-4706-91D8-67FAF6BE329B}"/>
+  <xr:revisionPtr revIDLastSave="1170" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E9A190EE-9E24-418E-A616-6967BE848CCF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="298">
   <si>
     <t>component</t>
   </si>
@@ -940,6 +940,9 @@
   </si>
   <si>
     <t>asset</t>
+  </si>
+  <si>
+    <t>termite</t>
   </si>
 </sst>
 </file>
@@ -2657,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,7 +4161,7 @@
   <dimension ref="A2:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,7 +4468,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,7 +4769,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B045CC-E4FE-4549-979E-BE0104045CD6}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5118,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>71</v>
